--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t>①</t>
   </si>
@@ -493,6 +493,13 @@
   </si>
   <si>
     <t>カメラ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>鉄道</t>
+    <rPh sb="0" eb="2">
+      <t>テツドウ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -680,6 +687,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,12 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3296,7 +3303,7 @@
   <sheetFormatPr defaultRowHeight="13.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="14.6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="1"/>
@@ -3323,10 +3330,10 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3342,10 +3349,10 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3361,10 +3368,10 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3388,28 +3395,28 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
@@ -3508,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -3615,14 +3622,14 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3630,10 +3637,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3641,54 +3648,54 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.6">
       <c r="B15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.6">
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>16</v>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.6">
       <c r="B17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>45</v>
+      <c r="C17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.6">
@@ -3696,86 +3703,89 @@
         <v>14</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.6">
+      <c r="B19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.6">
-      <c r="B19" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="14.6">
       <c r="B20" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C20" s="22"/>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="14.6">
       <c r="B21" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.6">
+      <c r="B22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.6">
-      <c r="B22" s="25"/>
-      <c r="C22" s="30"/>
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="14.6">
-      <c r="A23" s="20" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.6">
+      <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.6">
-      <c r="B24" s="22" t="s">
+    <row r="25" spans="1:5" ht="14.6">
+      <c r="B25" s="22" t="s">
         <v>1</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="23" t="s">
-        <v>5</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:5" ht="14.6">
+    <row r="26" spans="1:5">
       <c r="B26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.6">
+      <c r="B27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="24" t="s">
+    <row r="28" spans="1:5">
+      <c r="B28" s="24" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3783,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3791,7 +3801,7 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3799,6 +3809,14 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
         <v>67</v>
       </c>
     </row>
